--- a/lab_06/data/noise_budget.xlsx
+++ b/lab_06/data/noise_budget.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kavidey/Sync/Mudd/FA24/E157/lab_06/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C87379CA-A22D-5546-9298-69FB71E1F8FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0399539-918B-D44C-B443-5E3ACDB7CF27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="22">
   <si>
     <t>Stage</t>
   </si>
@@ -93,13 +93,19 @@
   </si>
   <si>
     <t>Bandpass Filter</t>
+  </si>
+  <si>
+    <t>30 dB Attenuator</t>
+  </si>
+  <si>
+    <t>fixed calcs</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -116,14 +122,6 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color theme="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -146,22 +144,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -378,20 +375,20 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="166" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" zoomScale="137" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="3" max="3" width="15.1640625" customWidth="1"/>
-    <col min="4" max="4" width="21.33203125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="21" style="5" customWidth="1"/>
+    <col min="4" max="4" width="22.33203125" style="8" customWidth="1"/>
+    <col min="5" max="5" width="22.5" style="4" customWidth="1"/>
     <col min="6" max="6" width="7" customWidth="1"/>
-    <col min="7" max="7" width="26" customWidth="1"/>
-    <col min="9" max="9" width="17.33203125" style="7" customWidth="1"/>
+    <col min="7" max="7" width="26.1640625" customWidth="1"/>
+    <col min="9" max="9" width="17.33203125" style="6" customWidth="1"/>
     <col min="10" max="10" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -405,10 +402,10 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -420,7 +417,7 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="5" t="s">
         <v>15</v>
       </c>
     </row>
@@ -428,28 +425,29 @@
       <c r="A2">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" t="s">
         <v>11</v>
       </c>
       <c r="C2">
         <v>-40</v>
       </c>
-      <c r="D2" s="5">
-        <v>0</v>
-      </c>
-      <c r="E2" s="5">
+      <c r="D2" s="8">
+        <v>0</v>
+      </c>
+      <c r="E2" s="4">
         <v>0</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="I2"/>
+      <c r="K2" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="2">
+      <c r="L2" s="4">
         <f>2400000000</f>
         <v>2400000000</v>
       </c>
@@ -458,65 +456,64 @@
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" t="s">
         <v>7</v>
       </c>
       <c r="C3">
         <f>C2+10*LOG10(F3)</f>
         <v>-60</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="8">
         <f>(1/F3 - 1)*$L$3</f>
-        <v>29007</v>
-      </c>
-      <c r="E3" s="5">
+        <v>29700</v>
+      </c>
+      <c r="E3" s="4">
         <f>F3*(E2+D3)</f>
-        <v>290.07</v>
+        <v>297</v>
       </c>
       <c r="F3">
         <f>POWER(10,(-20/10))</f>
         <v>0.01</v>
       </c>
-      <c r="I3" s="7">
+      <c r="I3">
         <f>10*LOG10(E3*$L$4*$L$5)</f>
-        <v>-163.97618098647104</v>
-      </c>
-      <c r="K3" s="2" t="s">
+        <v>-163.87364464281549</v>
+      </c>
+      <c r="K3" t="s">
         <v>13</v>
       </c>
-      <c r="L3" s="2">
-        <v>293</v>
+      <c r="L3">
+        <v>300</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" t="s">
         <v>8</v>
       </c>
       <c r="C4">
         <f>C3+10*LOG10(F4)</f>
         <v>-70</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="8">
         <f>(1/F4 - 1)*$L$3</f>
-        <v>2637</v>
-      </c>
-      <c r="E4" s="5">
+        <v>2700</v>
+      </c>
+      <c r="E4" s="4">
         <f>F4*(E3+D4)</f>
-        <v>292.70700000000005</v>
+        <v>299.7</v>
       </c>
       <c r="F4">
         <f>POWER(10,-10/10)</f>
         <v>0.1</v>
       </c>
-      <c r="I4" s="7">
+      <c r="I4">
         <f>10*LOG10(E4*$L$4*$L$5)</f>
-        <v>-163.93687805018672</v>
-      </c>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2" t="s">
+        <v>-163.83434170653118</v>
+      </c>
+      <c r="K4" t="s">
         <v>16</v>
       </c>
       <c r="L4">
@@ -528,37 +525,36 @@
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" t="s">
         <v>9</v>
       </c>
       <c r="C5">
         <f>C4+10*LOG10(F5)</f>
         <v>-33.089999999999996</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="8">
         <f>(POWER(10,G5/10)-1)*$L$3</f>
-        <v>437.91625499428591</v>
-      </c>
-      <c r="E5" s="5">
+        <v>431.34324551062576</v>
+      </c>
+      <c r="E5" s="4">
         <f>F5*(E4+D5)</f>
-        <v>3586687.1037694705</v>
+        <v>3588748.8702932764</v>
       </c>
       <c r="F5">
         <f>POWER(10,36.91/10)</f>
         <v>4909.078761526036</v>
       </c>
       <c r="G5">
-        <v>3.97</v>
-      </c>
-      <c r="I5" s="7">
+        <v>3.87</v>
+      </c>
+      <c r="I5">
         <f>10*LOG10(E5*$L$4*$L$5)</f>
-        <v>-123.05427422351711</v>
-      </c>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2" t="s">
+        <v>-123.05177844806281</v>
+      </c>
+      <c r="K5" t="s">
         <v>17</v>
       </c>
-      <c r="L5" s="5">
+      <c r="L5" s="4">
         <v>10000</v>
       </c>
     </row>
@@ -566,97 +562,96 @@
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" t="s">
         <v>10</v>
       </c>
       <c r="C6">
         <f>C5+10*LOG10(F6)</f>
         <v>-34.089999999999996</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="8">
         <f>(1/F6 - 1)*$L$3</f>
-        <v>75.865145655691009</v>
-      </c>
-      <c r="E6" s="5">
+        <v>77.677623538250188</v>
+      </c>
+      <c r="E6" s="4">
         <f>F6*(E5+D6)</f>
-        <v>2849067.0974727753</v>
+        <v>2850706.2565384004</v>
       </c>
       <c r="F6">
         <f>POWER(10,-1/10)</f>
         <v>0.79432823472428149</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I6">
         <f>10*LOG10(E6*$L$4*$L$5)</f>
-        <v>-124.05418236307676</v>
-      </c>
-      <c r="J6" s="2"/>
-      <c r="K6" s="3"/>
+        <v>-124.051684447063</v>
+      </c>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" t="s">
         <v>9</v>
       </c>
       <c r="C7">
         <f>C6+10*LOG10(F7)</f>
         <v>2.8200000000000074</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="8">
         <f>(POWER(10,G7/10)-1)*$L$3</f>
-        <v>437.91625499428591</v>
-      </c>
-      <c r="E7" s="5">
+        <v>431.34324551062576</v>
+      </c>
+      <c r="E7" s="4">
         <f>F7*(E6+D7)</f>
-        <v>13988444543.752951</v>
+        <v>13996459037.287516</v>
       </c>
       <c r="F7">
         <f>POWER(10,36.91/10)</f>
         <v>4909.078761526036</v>
       </c>
       <c r="G7">
-        <v>3.97</v>
-      </c>
-      <c r="I7" s="7">
+        <v>3.87</v>
+      </c>
+      <c r="I7">
         <f>10*LOG10(E7*$L$4*$L$5)</f>
-        <v>-87.143514881434896</v>
+        <v>-87.141027361402962</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
+      <c r="I8"/>
     </row>
     <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
+      <c r="I9"/>
+    </row>
+    <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I10"/>
     </row>
     <row r="11" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" s="2" t="s">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="8" t="s">
         <v>3</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" t="s">
         <v>5</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G11" t="s">
         <v>18</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="H11" t="s">
         <v>6</v>
       </c>
-      <c r="I11" s="6" t="s">
+      <c r="I11" t="s">
         <v>15</v>
       </c>
     </row>
@@ -664,158 +659,159 @@
       <c r="A12">
         <v>0</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" t="s">
         <v>11</v>
       </c>
       <c r="C12">
         <v>-40</v>
       </c>
-      <c r="D12" s="5">
-        <v>0</v>
-      </c>
-      <c r="E12" s="5">
+      <c r="D12" s="8">
+        <v>0</v>
+      </c>
+      <c r="E12" s="4">
         <v>0</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="H12" t="s">
         <v>14</v>
       </c>
+      <c r="I12"/>
     </row>
     <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>1</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" t="s">
         <v>7</v>
       </c>
       <c r="C13">
         <f>C12+10*LOG10(F13)</f>
         <v>-60</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="8">
         <f>(1/F13 - 1)*$L$3</f>
-        <v>29007</v>
-      </c>
-      <c r="E13" s="5">
+        <v>29700</v>
+      </c>
+      <c r="E13" s="4">
         <f>F13*(E12+D13)</f>
-        <v>290.07</v>
+        <v>297</v>
       </c>
       <c r="F13">
         <f>POWER(10,(-20/10))</f>
         <v>0.01</v>
       </c>
-      <c r="I13" s="7">
+      <c r="I13">
         <f>10*LOG10(E13*$L$4*$L$5)</f>
-        <v>-163.97618098647104</v>
+        <v>-163.87364464281549</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>2</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" t="s">
         <v>8</v>
       </c>
       <c r="C14">
         <f>C13+10*LOG10(F14)</f>
         <v>-70</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="8">
         <f>(1/F14 - 1)*$L$3</f>
-        <v>2637</v>
-      </c>
-      <c r="E14" s="5">
+        <v>2700</v>
+      </c>
+      <c r="E14" s="4">
         <f>F14*(E13+D14)</f>
-        <v>292.70700000000005</v>
+        <v>299.7</v>
       </c>
       <c r="F14">
         <f>POWER(10,-10/10)</f>
         <v>0.1</v>
       </c>
-      <c r="I14" s="7">
+      <c r="I14">
         <f>10*LOG10(E14*$L$4*$L$5)</f>
-        <v>-163.93687805018672</v>
+        <v>-163.83434170653118</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>3</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" t="s">
         <v>9</v>
       </c>
       <c r="C15">
         <f>C14+10*LOG10(F15)</f>
         <v>-33.089999999999996</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="8">
         <f>(POWER(10,G15/10)-1)*$L$3</f>
-        <v>437.91625499428591</v>
-      </c>
-      <c r="E15" s="5">
+        <v>431.34324551062576</v>
+      </c>
+      <c r="E15" s="4">
         <f>F15*(E14+D15)</f>
-        <v>3586687.1037694705</v>
+        <v>3588748.8702932764</v>
       </c>
       <c r="F15">
         <f>POWER(10,36.91/10)</f>
         <v>4909.078761526036</v>
       </c>
       <c r="G15">
-        <v>3.97</v>
-      </c>
-      <c r="I15" s="7">
+        <v>3.87</v>
+      </c>
+      <c r="I15">
         <f>10*LOG10(E15*$L$4*$L$5)</f>
-        <v>-123.05427422351711</v>
+        <v>-123.05177844806281</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>4</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" t="s">
         <v>19</v>
       </c>
       <c r="C16">
         <f>C15+10*LOG10(F16)</f>
         <v>-34.69</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="8">
         <f>(1/F16 - 1)*$L$3</f>
-        <v>130.51385282855674</v>
-      </c>
-      <c r="E16" s="5">
+        <v>133.63193122377822</v>
+      </c>
+      <c r="E16" s="4">
         <f>F16*(E15+D16)</f>
-        <v>2481471.5149087822</v>
+        <v>2482900.0660279584</v>
       </c>
       <c r="F16">
         <f>POWER(10,-1.6/10)</f>
         <v>0.69183097091893653</v>
       </c>
-      <c r="I16" s="7">
+      <c r="I16">
         <f>10*LOG10(E16*$L$4*$L$5)</f>
-        <v>-124.65411619352118</v>
+        <v>-124.65161673563337</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>5</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" t="s">
         <v>9</v>
       </c>
       <c r="C17">
         <f>C16+10*LOG10(F17)</f>
         <v>2.220000000000006</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="8">
         <f>(POWER(10,G17/10)-1)*$L$3</f>
-        <v>437.91625499428591</v>
-      </c>
-      <c r="E17" s="5">
+        <v>448.37841808288658</v>
+      </c>
+      <c r="E17" s="4">
         <f>F17*(E16+D17)</f>
-        <v>12183888876.557261</v>
+        <v>12190953106.09878</v>
       </c>
       <c r="F17">
         <f>POWER(10,36.91/10)</f>
@@ -824,10 +820,364 @@
       <c r="G17">
         <v>3.97</v>
       </c>
-      <c r="I17" s="7">
+      <c r="I17">
         <f>10*LOG10(E17*$L$4*$L$5)</f>
-        <v>-87.743349842456681</v>
-      </c>
+        <v>-87.740832528911142</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I18"/>
+    </row>
+    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I19"/>
+    </row>
+    <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I20"/>
+    </row>
+    <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22">
+        <v>-40</v>
+      </c>
+      <c r="D22" s="8">
+        <v>0</v>
+      </c>
+      <c r="E22" s="4">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="I22"/>
+    </row>
+    <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23">
+        <v>2</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23">
+        <f>C22+10*LOG10(F23)</f>
+        <v>-70</v>
+      </c>
+      <c r="D23" s="8">
+        <f>(1/F23 - 1)*$L$3</f>
+        <v>299700</v>
+      </c>
+      <c r="E23" s="4">
+        <f>(E22+D23)</f>
+        <v>299700</v>
+      </c>
+      <c r="F23">
+        <f>POWER(10,-30/10)</f>
+        <v>1E-3</v>
+      </c>
+      <c r="I23">
+        <f>10*LOG10(E23*$L$4*$L$5)</f>
+        <v>-133.83434170653121</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24">
+        <v>3</v>
+      </c>
+      <c r="B24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24">
+        <f>C23+10*LOG10(F24)</f>
+        <v>-33.089999999999996</v>
+      </c>
+      <c r="D24" s="8">
+        <f>(POWER(10,G24/10)-1)*$L$3</f>
+        <v>431.34324551062576</v>
+      </c>
+      <c r="E24" s="4">
+        <f>F24*(E23+D24)</f>
+        <v>1473368402.794817</v>
+      </c>
+      <c r="F24">
+        <f>POWER(10,36.91/10)</f>
+        <v>4909.078761526036</v>
+      </c>
+      <c r="G24">
+        <v>3.87</v>
+      </c>
+      <c r="I24">
+        <f>10*LOG10(E24*$L$4*$L$5)</f>
+        <v>-96.918095616668381</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25">
+        <v>4</v>
+      </c>
+      <c r="B25" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25">
+        <f>C24+10*LOG10(F25)</f>
+        <v>-34.089999999999996</v>
+      </c>
+      <c r="D25" s="8">
+        <f>(1/F25 - 1)*$L$3</f>
+        <v>77.677623538250188</v>
+      </c>
+      <c r="E25" s="4">
+        <f>F25*E24+D25</f>
+        <v>1170338200.1681645</v>
+      </c>
+      <c r="F25">
+        <f>POWER(10,-1/10)</f>
+        <v>0.79432823472428149</v>
+      </c>
+      <c r="I25">
+        <f>10*LOG10(E25*$L$4*$L$5)</f>
+        <v>-97.918095328418673</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26">
+        <v>5</v>
+      </c>
+      <c r="B26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26">
+        <f>C25+10*LOG10(F26)</f>
+        <v>2.8200000000000074</v>
+      </c>
+      <c r="D26" s="8">
+        <f>(POWER(10,G26/10)-1)*$L$3</f>
+        <v>431.34324551062576</v>
+      </c>
+      <c r="E26" s="4">
+        <f>F26*(E25+D26)</f>
+        <v>5745284519746.1084</v>
+      </c>
+      <c r="F26">
+        <f>POWER(10,36.91/10)</f>
+        <v>4909.078761526036</v>
+      </c>
+      <c r="G26">
+        <v>3.87</v>
+      </c>
+      <c r="I26">
+        <f>10*LOG10(E26*$L$4*$L$5)</f>
+        <v>-61.008093727770607</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I27"/>
+    </row>
+    <row r="28" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29">
+        <v>-40</v>
+      </c>
+      <c r="D29" s="8">
+        <v>0</v>
+      </c>
+      <c r="E29" s="4">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="I29"/>
+    </row>
+    <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30">
+        <v>2</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C30">
+        <f>C29+10*LOG10(F30)</f>
+        <v>-70</v>
+      </c>
+      <c r="D30" s="8">
+        <f>(1/F30 - 1)*$L$3</f>
+        <v>299700</v>
+      </c>
+      <c r="E30" s="4">
+        <f>(E29+D30)</f>
+        <v>299700</v>
+      </c>
+      <c r="F30">
+        <f>POWER(10,-30/10)</f>
+        <v>1E-3</v>
+      </c>
+      <c r="I30">
+        <f>10*LOG10(E30*$L$4*$L$5)</f>
+        <v>-133.83434170653121</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31">
+        <v>3</v>
+      </c>
+      <c r="B31" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31">
+        <f>C30+10*LOG10(F31)</f>
+        <v>-33.089999999999996</v>
+      </c>
+      <c r="D31" s="8">
+        <f>(POWER(10,G31/10)-1)*$L$3</f>
+        <v>431.34324551062576</v>
+      </c>
+      <c r="E31" s="4">
+        <f>F31*(E30+D31)</f>
+        <v>1473368402.794817</v>
+      </c>
+      <c r="F31">
+        <f>POWER(10,36.91/10)</f>
+        <v>4909.078761526036</v>
+      </c>
+      <c r="G31">
+        <v>3.87</v>
+      </c>
+      <c r="I31">
+        <f>10*LOG10(E31*$L$4*$L$5)</f>
+        <v>-96.918095616668381</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32">
+        <v>4</v>
+      </c>
+      <c r="B32" t="s">
+        <v>19</v>
+      </c>
+      <c r="C32">
+        <f>C31+10*LOG10(F32)</f>
+        <v>-34.69</v>
+      </c>
+      <c r="D32" s="8">
+        <f>(1/F32 - 1)*$L$3</f>
+        <v>133.63193122377822</v>
+      </c>
+      <c r="E32" s="4">
+        <f>F32*E31+D32</f>
+        <v>1019322026.2587521</v>
+      </c>
+      <c r="F32">
+        <f>POWER(10,-1.6/10)</f>
+        <v>0.69183097091893653</v>
+      </c>
+      <c r="I32">
+        <f>10*LOG10(E32*$L$4*$L$5)</f>
+        <v>-98.518095047313338</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33">
+        <v>5</v>
+      </c>
+      <c r="B33" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33">
+        <f>C32+10*LOG10(F33)</f>
+        <v>2.220000000000006</v>
+      </c>
+      <c r="D33" s="8">
+        <f>(POWER(10,G33/10)-1)*$L$3</f>
+        <v>431.34324551062576</v>
+      </c>
+      <c r="E33" s="4">
+        <f>F33*(E32+D33)</f>
+        <v>5003934227760.4902</v>
+      </c>
+      <c r="F33">
+        <f>POWER(10,36.91/10)</f>
+        <v>4909.078761526036</v>
+      </c>
+      <c r="G33">
+        <v>3.87</v>
+      </c>
+      <c r="I33">
+        <f>10*LOG10(E33*$L$4*$L$5)</f>
+        <v>-61.608093209523631</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I34"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/lab_06/data/noise_budget.xlsx
+++ b/lab_06/data/noise_budget.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kavidey/Sync/Mudd/FA24/E157/lab_06/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0399539-918B-D44C-B443-5E3ACDB7CF27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31A2874D-5504-6844-BE0A-D59056D4A978}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="20">
   <si>
     <t>Stage</t>
   </si>
@@ -93,12 +93,6 @@
   </si>
   <si>
     <t>Bandpass Filter</t>
-  </si>
-  <si>
-    <t>30 dB Attenuator</t>
-  </si>
-  <si>
-    <t>fixed calcs</t>
   </si>
 </sst>
 </file>
@@ -147,7 +141,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -155,8 +149,6 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -378,13 +370,13 @@
   <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="137" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="3" max="3" width="15.1640625" customWidth="1"/>
-    <col min="4" max="4" width="22.33203125" style="8" customWidth="1"/>
+    <col min="4" max="4" width="22.33203125" customWidth="1"/>
     <col min="5" max="5" width="22.5" style="4" customWidth="1"/>
     <col min="6" max="6" width="7" customWidth="1"/>
     <col min="7" max="7" width="26.1640625" customWidth="1"/>
@@ -402,7 +394,7 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
@@ -431,7 +423,7 @@
       <c r="C2">
         <v>-40</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2">
         <v>0</v>
       </c>
       <c r="E2" s="4">
@@ -463,7 +455,7 @@
         <f>C2+10*LOG10(F3)</f>
         <v>-60</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3">
         <f>(1/F3 - 1)*$L$3</f>
         <v>29700</v>
       </c>
@@ -475,9 +467,9 @@
         <f>POWER(10,(-20/10))</f>
         <v>0.01</v>
       </c>
-      <c r="I3">
-        <f>10*LOG10(E3*$L$4*$L$5)</f>
-        <v>-163.87364464281549</v>
+      <c r="I3" s="6">
+        <f>10*LOG10(E3*$L$4*$L$5*1000)</f>
+        <v>-133.87364464281552</v>
       </c>
       <c r="K3" t="s">
         <v>13</v>
@@ -497,7 +489,7 @@
         <f>C3+10*LOG10(F4)</f>
         <v>-70</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4">
         <f>(1/F4 - 1)*$L$3</f>
         <v>2700</v>
       </c>
@@ -509,9 +501,9 @@
         <f>POWER(10,-10/10)</f>
         <v>0.1</v>
       </c>
-      <c r="I4">
-        <f>10*LOG10(E4*$L$4*$L$5)</f>
-        <v>-163.83434170653118</v>
+      <c r="I4" s="6">
+        <f t="shared" ref="I4:I7" si="0">10*LOG10(E4*$L$4*$L$5*1000)</f>
+        <v>-133.83434170653121</v>
       </c>
       <c r="K4" t="s">
         <v>16</v>
@@ -532,7 +524,7 @@
         <f>C4+10*LOG10(F5)</f>
         <v>-33.089999999999996</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5">
         <f>(POWER(10,G5/10)-1)*$L$3</f>
         <v>431.34324551062576</v>
       </c>
@@ -547,9 +539,9 @@
       <c r="G5">
         <v>3.87</v>
       </c>
-      <c r="I5">
-        <f>10*LOG10(E5*$L$4*$L$5)</f>
-        <v>-123.05177844806281</v>
+      <c r="I5" s="6">
+        <f t="shared" si="0"/>
+        <v>-93.051778448062805</v>
       </c>
       <c r="K5" t="s">
         <v>17</v>
@@ -569,7 +561,7 @@
         <f>C5+10*LOG10(F6)</f>
         <v>-34.089999999999996</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6">
         <f>(1/F6 - 1)*$L$3</f>
         <v>77.677623538250188</v>
       </c>
@@ -581,9 +573,9 @@
         <f>POWER(10,-1/10)</f>
         <v>0.79432823472428149</v>
       </c>
-      <c r="I6">
-        <f>10*LOG10(E6*$L$4*$L$5)</f>
-        <v>-124.051684447063</v>
+      <c r="I6" s="6">
+        <f t="shared" si="0"/>
+        <v>-94.051684447062996</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -597,7 +589,7 @@
         <f>C6+10*LOG10(F7)</f>
         <v>2.8200000000000074</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7">
         <f>(POWER(10,G7/10)-1)*$L$3</f>
         <v>431.34324551062576</v>
       </c>
@@ -612,9 +604,9 @@
       <c r="G7">
         <v>3.87</v>
       </c>
-      <c r="I7">
-        <f>10*LOG10(E7*$L$4*$L$5)</f>
-        <v>-87.141027361402962</v>
+      <c r="I7" s="6">
+        <f t="shared" si="0"/>
+        <v>-57.141027361402962</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -636,7 +628,7 @@
       <c r="C11" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" t="s">
         <v>3</v>
       </c>
       <c r="E11" s="4" t="s">
@@ -665,7 +657,7 @@
       <c r="C12">
         <v>-40</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12">
         <v>0</v>
       </c>
       <c r="E12" s="4">
@@ -690,7 +682,7 @@
         <f>C12+10*LOG10(F13)</f>
         <v>-60</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13">
         <f>(1/F13 - 1)*$L$3</f>
         <v>29700</v>
       </c>
@@ -702,9 +694,9 @@
         <f>POWER(10,(-20/10))</f>
         <v>0.01</v>
       </c>
-      <c r="I13">
-        <f>10*LOG10(E13*$L$4*$L$5)</f>
-        <v>-163.87364464281549</v>
+      <c r="I13" s="6">
+        <f t="shared" ref="I13:I17" si="1">10*LOG10(E13*$L$4*$L$5*1000)</f>
+        <v>-133.87364464281552</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -718,7 +710,7 @@
         <f>C13+10*LOG10(F14)</f>
         <v>-70</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D14">
         <f>(1/F14 - 1)*$L$3</f>
         <v>2700</v>
       </c>
@@ -730,9 +722,9 @@
         <f>POWER(10,-10/10)</f>
         <v>0.1</v>
       </c>
-      <c r="I14">
-        <f>10*LOG10(E14*$L$4*$L$5)</f>
-        <v>-163.83434170653118</v>
+      <c r="I14" s="6">
+        <f t="shared" si="1"/>
+        <v>-133.83434170653121</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -746,7 +738,7 @@
         <f>C14+10*LOG10(F15)</f>
         <v>-33.089999999999996</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15">
         <f>(POWER(10,G15/10)-1)*$L$3</f>
         <v>431.34324551062576</v>
       </c>
@@ -761,9 +753,9 @@
       <c r="G15">
         <v>3.87</v>
       </c>
-      <c r="I15">
-        <f>10*LOG10(E15*$L$4*$L$5)</f>
-        <v>-123.05177844806281</v>
+      <c r="I15" s="6">
+        <f t="shared" si="1"/>
+        <v>-93.051778448062805</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -777,7 +769,7 @@
         <f>C15+10*LOG10(F16)</f>
         <v>-34.69</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D16">
         <f>(1/F16 - 1)*$L$3</f>
         <v>133.63193122377822</v>
       </c>
@@ -789,9 +781,9 @@
         <f>POWER(10,-1.6/10)</f>
         <v>0.69183097091893653</v>
       </c>
-      <c r="I16">
-        <f>10*LOG10(E16*$L$4*$L$5)</f>
-        <v>-124.65161673563337</v>
+      <c r="I16" s="6">
+        <f t="shared" si="1"/>
+        <v>-94.651616735633368</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -805,7 +797,7 @@
         <f>C16+10*LOG10(F17)</f>
         <v>2.220000000000006</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D17">
         <f>(POWER(10,G17/10)-1)*$L$3</f>
         <v>448.37841808288658</v>
       </c>
@@ -820,9 +812,9 @@
       <c r="G17">
         <v>3.97</v>
       </c>
-      <c r="I17">
-        <f>10*LOG10(E17*$L$4*$L$5)</f>
-        <v>-87.740832528911142</v>
+      <c r="I17" s="6">
+        <f t="shared" si="1"/>
+        <v>-57.740832528911135</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -832,351 +824,69 @@
       <c r="I19"/>
     </row>
     <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="2" t="s">
-        <v>21</v>
-      </c>
+      <c r="A20" s="2"/>
       <c r="I20"/>
     </row>
     <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I21" s="5" t="s">
-        <v>15</v>
-      </c>
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="5"/>
     </row>
     <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22">
-        <v>1</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22">
-        <v>-40</v>
-      </c>
-      <c r="D22" s="8">
-        <v>0</v>
-      </c>
-      <c r="E22" s="4">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
+      <c r="B22" s="2"/>
       <c r="I22"/>
     </row>
     <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23">
-        <v>2</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C23">
-        <f>C22+10*LOG10(F23)</f>
-        <v>-70</v>
-      </c>
-      <c r="D23" s="8">
-        <f>(1/F23 - 1)*$L$3</f>
-        <v>299700</v>
-      </c>
-      <c r="E23" s="4">
-        <f>(E22+D23)</f>
-        <v>299700</v>
-      </c>
-      <c r="F23">
-        <f>POWER(10,-30/10)</f>
-        <v>1E-3</v>
-      </c>
-      <c r="I23">
-        <f>10*LOG10(E23*$L$4*$L$5)</f>
-        <v>-133.83434170653121</v>
-      </c>
+      <c r="B23" s="2"/>
+      <c r="I23"/>
     </row>
     <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24">
-        <v>3</v>
-      </c>
-      <c r="B24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24">
-        <f>C23+10*LOG10(F24)</f>
-        <v>-33.089999999999996</v>
-      </c>
-      <c r="D24" s="8">
-        <f>(POWER(10,G24/10)-1)*$L$3</f>
-        <v>431.34324551062576</v>
-      </c>
-      <c r="E24" s="4">
-        <f>F24*(E23+D24)</f>
-        <v>1473368402.794817</v>
-      </c>
-      <c r="F24">
-        <f>POWER(10,36.91/10)</f>
-        <v>4909.078761526036</v>
-      </c>
-      <c r="G24">
-        <v>3.87</v>
-      </c>
-      <c r="I24">
-        <f>10*LOG10(E24*$L$4*$L$5)</f>
-        <v>-96.918095616668381</v>
-      </c>
+      <c r="I24"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25">
-        <v>4</v>
-      </c>
-      <c r="B25" t="s">
-        <v>10</v>
-      </c>
-      <c r="C25">
-        <f>C24+10*LOG10(F25)</f>
-        <v>-34.089999999999996</v>
-      </c>
-      <c r="D25" s="8">
-        <f>(1/F25 - 1)*$L$3</f>
-        <v>77.677623538250188</v>
-      </c>
-      <c r="E25" s="4">
-        <f>F25*E24+D25</f>
-        <v>1170338200.1681645</v>
-      </c>
-      <c r="F25">
-        <f>POWER(10,-1/10)</f>
-        <v>0.79432823472428149</v>
-      </c>
-      <c r="I25">
-        <f>10*LOG10(E25*$L$4*$L$5)</f>
-        <v>-97.918095328418673</v>
-      </c>
+      <c r="I25"/>
     </row>
     <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26">
-        <v>5</v>
-      </c>
-      <c r="B26" t="s">
-        <v>9</v>
-      </c>
-      <c r="C26">
-        <f>C25+10*LOG10(F26)</f>
-        <v>2.8200000000000074</v>
-      </c>
-      <c r="D26" s="8">
-        <f>(POWER(10,G26/10)-1)*$L$3</f>
-        <v>431.34324551062576</v>
-      </c>
-      <c r="E26" s="4">
-        <f>F26*(E25+D26)</f>
-        <v>5745284519746.1084</v>
-      </c>
-      <c r="F26">
-        <f>POWER(10,36.91/10)</f>
-        <v>4909.078761526036</v>
-      </c>
-      <c r="G26">
-        <v>3.87</v>
-      </c>
-      <c r="I26">
-        <f>10*LOG10(E26*$L$4*$L$5)</f>
-        <v>-61.008093727770607</v>
-      </c>
+      <c r="I26"/>
     </row>
     <row r="27" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="I27"/>
     </row>
     <row r="28" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I28" s="5" t="s">
-        <v>15</v>
-      </c>
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="5"/>
     </row>
     <row r="29" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29">
-        <v>1</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C29">
-        <v>-40</v>
-      </c>
-      <c r="D29" s="8">
-        <v>0</v>
-      </c>
-      <c r="E29" s="4">
-        <v>0</v>
-      </c>
-      <c r="F29">
-        <v>0</v>
-      </c>
+      <c r="B29" s="2"/>
       <c r="I29"/>
     </row>
     <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30">
-        <v>2</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C30">
-        <f>C29+10*LOG10(F30)</f>
-        <v>-70</v>
-      </c>
-      <c r="D30" s="8">
-        <f>(1/F30 - 1)*$L$3</f>
-        <v>299700</v>
-      </c>
-      <c r="E30" s="4">
-        <f>(E29+D30)</f>
-        <v>299700</v>
-      </c>
-      <c r="F30">
-        <f>POWER(10,-30/10)</f>
-        <v>1E-3</v>
-      </c>
-      <c r="I30">
-        <f>10*LOG10(E30*$L$4*$L$5)</f>
-        <v>-133.83434170653121</v>
-      </c>
+      <c r="B30" s="2"/>
+      <c r="I30"/>
     </row>
     <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31">
-        <v>3</v>
-      </c>
-      <c r="B31" t="s">
-        <v>9</v>
-      </c>
-      <c r="C31">
-        <f>C30+10*LOG10(F31)</f>
-        <v>-33.089999999999996</v>
-      </c>
-      <c r="D31" s="8">
-        <f>(POWER(10,G31/10)-1)*$L$3</f>
-        <v>431.34324551062576</v>
-      </c>
-      <c r="E31" s="4">
-        <f>F31*(E30+D31)</f>
-        <v>1473368402.794817</v>
-      </c>
-      <c r="F31">
-        <f>POWER(10,36.91/10)</f>
-        <v>4909.078761526036</v>
-      </c>
-      <c r="G31">
-        <v>3.87</v>
-      </c>
-      <c r="I31">
-        <f>10*LOG10(E31*$L$4*$L$5)</f>
-        <v>-96.918095616668381</v>
-      </c>
+      <c r="I31"/>
     </row>
     <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32">
-        <v>4</v>
-      </c>
-      <c r="B32" t="s">
-        <v>19</v>
-      </c>
-      <c r="C32">
-        <f>C31+10*LOG10(F32)</f>
-        <v>-34.69</v>
-      </c>
-      <c r="D32" s="8">
-        <f>(1/F32 - 1)*$L$3</f>
-        <v>133.63193122377822</v>
-      </c>
-      <c r="E32" s="4">
-        <f>F32*E31+D32</f>
-        <v>1019322026.2587521</v>
-      </c>
-      <c r="F32">
-        <f>POWER(10,-1.6/10)</f>
-        <v>0.69183097091893653</v>
-      </c>
-      <c r="I32">
-        <f>10*LOG10(E32*$L$4*$L$5)</f>
-        <v>-98.518095047313338</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33">
-        <v>5</v>
-      </c>
-      <c r="B33" t="s">
-        <v>9</v>
-      </c>
-      <c r="C33">
-        <f>C32+10*LOG10(F33)</f>
-        <v>2.220000000000006</v>
-      </c>
-      <c r="D33" s="8">
-        <f>(POWER(10,G33/10)-1)*$L$3</f>
-        <v>431.34324551062576</v>
-      </c>
-      <c r="E33" s="4">
-        <f>F33*(E32+D33)</f>
-        <v>5003934227760.4902</v>
-      </c>
-      <c r="F33">
-        <f>POWER(10,36.91/10)</f>
-        <v>4909.078761526036</v>
-      </c>
-      <c r="G33">
-        <v>3.87</v>
-      </c>
-      <c r="I33">
-        <f>10*LOG10(E33*$L$4*$L$5)</f>
-        <v>-61.608093209523631</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I32"/>
+    </row>
+    <row r="33" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I33"/>
+    </row>
+    <row r="34" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="I34"/>
     </row>
   </sheetData>
